--- a/Task1/results.xlsx
+++ b/Task1/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" xr2:uid="{16B57D01-7B95-48A8-AB11-D57F54230824}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" xr2:uid="{CB6D7556-34C1-4E15-B9A4-A55316858E00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Data</t>
   </si>
@@ -44,13 +44,25 @@
     <t>Statusas</t>
   </si>
   <si>
-    <t>18-1926</t>
+    <t>18-1824</t>
+  </si>
+  <si>
+    <t>Įstatymo projektas</t>
+  </si>
+  <si>
+    <t>Neišsiųsta</t>
+  </si>
+  <si>
+    <t>18-1822</t>
+  </si>
+  <si>
+    <t>18-1816</t>
   </si>
   <si>
     <t>Nutarimo projektas</t>
   </si>
   <si>
-    <t>Neišsiųsta</t>
+    <t>17-11081(2</t>
   </si>
 </sst>
 </file>
@@ -402,8 +414,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C549C4C-2B0A-41CB-B95B-2984C4115683}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E297B716-5A1C-477E-A61E-02F8CEBE6FAA}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -431,7 +443,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43151</v>
+        <v>43146</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -440,12 +452,69 @@
         <v>7</v>
       </c>
       <c r="D2" s="1">
-        <v>43151</v>
+        <v>43146</v>
       </c>
       <c r="E2" s="1">
-        <v>43159</v>
+        <v>43158</v>
       </c>
       <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43146</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43146</v>
+      </c>
+      <c r="E3" s="1">
+        <v>43158</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43146</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43146</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43158</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43146</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43146</v>
+      </c>
+      <c r="F5" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Task1/results.xlsx
+++ b/Task1/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" xr2:uid="{CB6D7556-34C1-4E15-B9A4-A55316858E00}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8865" xr2:uid="{3186E6FF-E27F-4F23-BDE7-8B70251FB1F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Data</t>
   </si>
@@ -44,25 +44,16 @@
     <t>Statusas</t>
   </si>
   <si>
-    <t>18-1824</t>
-  </si>
-  <si>
-    <t>Įstatymo projektas</t>
-  </si>
-  <si>
-    <t>Neišsiųsta</t>
-  </si>
-  <si>
-    <t>18-1822</t>
-  </si>
-  <si>
-    <t>18-1816</t>
+    <t>17-12578(2)</t>
   </si>
   <si>
     <t>Nutarimo projektas</t>
   </si>
   <si>
-    <t>17-11081(2</t>
+    <t>Išsiųsta</t>
+  </si>
+  <si>
+    <t>18-1867</t>
   </si>
 </sst>
 </file>
@@ -414,8 +405,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E297B716-5A1C-477E-A61E-02F8CEBE6FAA}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEAC0F6-8347-4CAC-9D8C-2D2F2CCAEEFC}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -443,7 +434,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43146</v>
+        <v>43150</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -452,10 +443,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="1">
-        <v>43146</v>
+        <v>43151</v>
       </c>
       <c r="E2" s="1">
-        <v>43158</v>
+        <v>43159</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -463,7 +454,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43146</v>
+        <v>43150</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -472,49 +463,12 @@
         <v>7</v>
       </c>
       <c r="D3" s="1">
-        <v>43146</v>
+        <v>43150</v>
       </c>
       <c r="E3" s="1">
-        <v>43158</v>
+        <v>43157</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43146</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1">
-        <v>43146</v>
-      </c>
-      <c r="E4" s="1">
-        <v>43158</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43146</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1">
-        <v>43146</v>
-      </c>
-      <c r="F5" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Task1/results.xlsx
+++ b/Task1/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8865" xr2:uid="{3186E6FF-E27F-4F23-BDE7-8B70251FB1F8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8865" xr2:uid="{C3A66CDD-D6FC-4BF2-80AF-66E301292DB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEAC0F6-8347-4CAC-9D8C-2D2F2CCAEEFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9311CAE0-10B9-4259-84AE-38C63C848943}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
